--- a/correlation/audi/minutely/correlation/audi_correlation_volume_with_semantics.xlsx
+++ b/correlation/audi/minutely/correlation/audi_correlation_volume_with_semantics.xlsx
@@ -428,16 +428,58 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>-0.03187724246814782</v>
+      </c>
+      <c r="D2">
+        <v>-0.03187724246814688</v>
+      </c>
+      <c r="F2">
+        <v>-0.03187724246814867</v>
+      </c>
+      <c r="H2">
+        <v>0.0318772424681432</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.03187724246814782</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="F3">
+        <v>1.000000000000099</v>
+      </c>
+      <c r="H3">
+        <v>-1.000000000000104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>-0.03187724246814688</v>
+      </c>
+      <c r="C4">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.000000000000039</v>
+      </c>
+      <c r="H4">
+        <v>-0.9999999999999581</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
@@ -448,6 +490,21 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>-0.03187724246814867</v>
+      </c>
+      <c r="C6">
+        <v>1.000000000000099</v>
+      </c>
+      <c r="D6">
+        <v>1.000000000000039</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-0.9999999999999509</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -457,6 +514,21 @@
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.0318772424681432</v>
+      </c>
+      <c r="C8">
+        <v>-1.000000000000104</v>
+      </c>
+      <c r="D8">
+        <v>-0.9999999999999581</v>
+      </c>
+      <c r="F8">
+        <v>-0.9999999999999509</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
